--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="11_2CD8505CD931ACBCCD46FCF201C52297C3D0BD78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA65D27C-27B2-4B12-9765-BEF278BD348B}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="11_2CD8505CD931ACBCCD46FCF201C52297C3D0BD78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5897ABC4-C0C4-4F2A-B34C-90E428A35B9C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4872" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,15 +34,39 @@
     <t>Url</t>
   </si>
   <si>
+    <t>SATS Ltd</t>
+  </si>
+  <si>
+    <t>Internship</t>
+  </si>
+  <si>
+    <t>Less than a year</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/operational-excellence-intern/a8b2710b-5c6d-4e97-b1cd-13d0b32e5806?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/airport-lounge-bartender-intern-6-months/a343d364-5c0e-4c45-a644-1d5b1246e87e?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/airport-transit-lounge-intern-6-months/bf8c233d-3e33-4cfa-84cc-c9f709636531?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/robotic-process-automation-rpa-and-power-platform-intern-6-mth/a6b35435-4061-4a99-adef-27384f1d1be8?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/talent-acquisition-intern-jan-jun-2024/280b0ed4-eb40-44a1-80bf-19adbeb474b5?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>1st Choice Recruit Pte Ltd</t>
+  </si>
+  <si>
     <t>Full-Time</t>
   </si>
   <si>
     <t>1 – 3 years</t>
   </si>
   <si>
-    <t>1st Choice Recruit Pte Ltd</t>
-  </si>
-  <si>
     <t>https://glints.com/sg/opportunities/jobs/import-executive/c1b89a38-2ce8-42b4-a828-c88cb87909d4?utm_referrer=explore</t>
   </si>
   <si>
@@ -50,47 +74,16 @@
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/fun-sales-assistant-retail/a04bbd98-f889-47b8-aa4a-7e5158a30933?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>SATS Ltd</t>
-  </si>
-  <si>
-    <t>Internship</t>
-  </si>
-  <si>
-    <t>Less than a year</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/airport-transit-lounge-intern-6-months/bf8c233d-3e33-4cfa-84cc-c9f709636531?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/airport-lounge-bartender-intern-6-months/a343d364-5c0e-4c45-a644-1d5b1246e87e?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/operational-excellence-intern/a8b2710b-5c6d-4e97-b1cd-13d0b32e5806?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/talent-acquisition-intern-jan-jun-2024/280b0ed4-eb40-44a1-80bf-19adbeb474b5?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/robotic-process-automation-rpa-and-power-platform-intern-6-mth/a6b35435-4061-4a99-adef-27384f1d1be8?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -112,16 +105,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,7 +415,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,100 +443,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -555,9 +545,6 @@
     <sortCondition ref="B1"/>
     <sortCondition ref="C1"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{29213148-9313-48F3-8074-194DDDBCA059}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>
--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tc72i\OneDrive\Documents\GitHub\InAuto\InAuto_Project_2200589F_2202465G\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="11_2CD8505CD931ACBCCD46FCF201C52297C3D0BD78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5897ABC4-C0C4-4F2A-B34C-90E428A35B9C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C6A50-6CF1-4B98-8C0C-F6A02F8A736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>Company</t>
   </si>
@@ -34,46 +34,181 @@
     <t>Url</t>
   </si>
   <si>
+    <t>Internship</t>
+  </si>
+  <si>
+    <t>Full-Time</t>
+  </si>
+  <si>
+    <t>1 – 3 years</t>
+  </si>
+  <si>
+    <t>Monstyr Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer/24ea8fc5-6ea3-49cb-9926-1fa896dc7543?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Watchdata Technologies Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/testing-engineer-telecom/1fa36c3b-d2cb-41d6-b28d-d5a0e3251bae?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Youyi Technology Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/project-engineer/5ae320e1-2233-4535-acc2-8069467f3e1a?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Job Express Services Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/project-engineer-id8074/6d7bd9f2-661e-4b9c-96dc-b5bc65a0c119?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Trueworld Studios</t>
+  </si>
+  <si>
+    <t>Vflowtech</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/embedded-engineer-battery-and-energy-management-system/6e3fcfce-ca80-402f-9df9-d700007bfc06?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Aha AI</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/generative-ai-engineer-full-remote/bc3b4647-208f-4057-93ec-0a24785f7aac?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Mgg Software Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/4f83d138-dae5-4a84-9ba1-9350933b8203?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Environmental Solutions (Asia) Pte Ltd</t>
+  </si>
+  <si>
+    <t>Less than a year</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/engineering-assistant/b92bbf58-4a87-4d6d-aad8-d6470f4117ab?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Rsm Singapore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/intern-software-developer/116b82dd-3270-4c96-b534-696507ddef18?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>NETS Solutions Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-developer-intern/85f9b0e7-4f7f-45c6-97d7-3a88211f31f3?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Rakuten Asia</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer-fresh-graduates-2024/67eaf32c-6f99-454d-a734-0bb945b5f174?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Vibefam</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/fullstack-software-engineer-intern-summer-2024/72a4cc76-8994-408e-8736-642f4633d4fc?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-developer-intern-digital-transformation-office/48f633d3-49ad-4881-bf3f-5534ec99e573?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Mgg Software Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/39bcd98d-d095-452b-82d2-65cd5a5ebded?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>ANOTECH Singapore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/service-support-engineer-networking/93722f6a-0153-4103-86e6-78ac98f7578d?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Aevice Health</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/project-engineer/d479eb1a-da17-4468-8a63-c5902c733e96?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/executive-assistant/6de1613e-a1c9-4d70-82ef-437b0baf25ca?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>El Pando Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/frontend-web-developer/7bcd6a22-5936-4a4e-9249-aa512de99f57?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Assembly Works HR Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/civil-architecture-engineering-intern/5e4e3ee7-4972-441f-8827-72648f335937?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>ConcreteAI</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/iot-intern-q3-q4-sem-1/bd922dbf-58f8-4598-a50b-99ddd80dfb6c?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>PPP Coffee</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/finance-admin/c5c9f34f-1c48-41b3-8abc-f2dac2560a47?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Lifvation Group</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/cake-sales-and-admin-executive/3810357d-cf8f-472d-b6d2-4165554deb8e?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Marymount Labs</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/venture-development-intern-part-time/1892c84b-1f77-4511-ae50-5395661f02a9?utm_referrer=explore</t>
+  </si>
+  <si>
     <t>SATS Ltd</t>
   </si>
   <si>
-    <t>Internship</t>
-  </si>
-  <si>
-    <t>Less than a year</t>
+    <t>https://glints.com/sg/opportunities/jobs/sats-aerolaundry-intern-6-months/caa0a502-14be-4b87-990c-f19573e70ff1?utm_referrer=explore</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/operational-excellence-intern/a8b2710b-5c6d-4e97-b1cd-13d0b32e5806?utm_referrer=explore</t>
   </si>
   <si>
-    <t>https://glints.com/sg/opportunities/jobs/airport-lounge-bartender-intern-6-months/a343d364-5c0e-4c45-a644-1d5b1246e87e?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/airport-transit-lounge-intern-6-months/bf8c233d-3e33-4cfa-84cc-c9f709636531?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/robotic-process-automation-rpa-and-power-platform-intern-6-mth/a6b35435-4061-4a99-adef-27384f1d1be8?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/talent-acquisition-intern-jan-jun-2024/280b0ed4-eb40-44a1-80bf-19adbeb474b5?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>1st Choice Recruit Pte Ltd</t>
-  </si>
-  <si>
-    <t>Full-Time</t>
-  </si>
-  <si>
-    <t>1 – 3 years</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/import-executive/c1b89a38-2ce8-42b4-a828-c88cb87909d4?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>House of Kashkha Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/fun-sales-assistant-retail/a04bbd98-f889-47b8-aa4a-7e5158a30933?utm_referrer=explore</t>
+    <t>Mediashock Productions Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/assistant-producer-intern/6dde4711-3c6f-4a32-8f39-b0829a49567b?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/videographer-intern/33016724-4b35-45eb-a3b1-fee4af6c0982?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/video-editor-cum-motion-graphics-intern/d86b0f46-6b50-4502-83e4-dcfbd8ca3114?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/videographer-intern-for-mediashock/98a63975-9ad4-4666-86fa-8ca9cbb11bc2?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>&amp;Whyte</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/advertising-account-executive-intern/538d8e19-3290-482f-936b-e6fbb804a249?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
@@ -412,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -420,11 +555,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="146.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="140.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="140.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -443,35 +577,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -480,67 +614,389 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
     <sortCondition ref="A1"/>
     <sortCondition ref="B1"/>
     <sortCondition ref="C1"/>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tc72i\OneDrive\Documents\GitHub\InAuto\InAuto_Project_2200589F_2202465G\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C6A50-6CF1-4B98-8C0C-F6A02F8A736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC754CC-3C25-4DBC-93F5-C7FB46F8CA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
   <si>
     <t>Company</t>
   </si>
@@ -40,12 +40,72 @@
     <t>Full-Time</t>
   </si>
   <si>
+    <t>Trueworld Studios</t>
+  </si>
+  <si>
+    <t>Environmental Solutions (Asia) Pte Ltd</t>
+  </si>
+  <si>
+    <t>Less than a year</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/engineering-assistant/b92bbf58-4a87-4d6d-aad8-d6470f4117ab?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Rsm Singapore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/intern-software-developer/116b82dd-3270-4c96-b534-696507ddef18?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>NETS Solutions Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-developer-intern/85f9b0e7-4f7f-45c6-97d7-3a88211f31f3?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Rakuten Asia</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer-fresh-graduates-2024/67eaf32c-6f99-454d-a734-0bb945b5f174?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Vibefam</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/fullstack-software-engineer-intern-summer-2024/72a4cc76-8994-408e-8736-642f4633d4fc?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-developer-intern-digital-transformation-office/48f633d3-49ad-4881-bf3f-5534ec99e573?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Mgg Software Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/39bcd98d-d095-452b-82d2-65cd5a5ebded?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>ANOTECH Singapore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/service-support-engineer-networking/93722f6a-0153-4103-86e6-78ac98f7578d?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Aevice Health</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/project-engineer/d479eb1a-da17-4468-8a63-c5902c733e96?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/executive-assistant/6de1613e-a1c9-4d70-82ef-437b0baf25ca?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Monstyr Pte. Ltd.</t>
+  </si>
+  <si>
     <t>1 – 3 years</t>
   </si>
   <si>
-    <t>Monstyr Pte. Ltd.</t>
-  </si>
-  <si>
     <t>https://glints.com/sg/opportunities/jobs/software-engineer/24ea8fc5-6ea3-49cb-9926-1fa896dc7543?utm_referrer=explore</t>
   </si>
   <si>
@@ -55,21 +115,24 @@
     <t>https://glints.com/sg/opportunities/jobs/testing-engineer-telecom/1fa36c3b-d2cb-41d6-b28d-d5a0e3251bae?utm_referrer=explore</t>
   </si>
   <si>
+    <t>Mgg Software Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/4f83d138-dae5-4a84-9ba1-9350933b8203?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Job Express Services Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/project-engineer-id8074/6d7bd9f2-661e-4b9c-96dc-b5bc65a0c119?utm_referrer=explore</t>
+  </si>
+  <si>
     <t>Youyi Technology Pte Ltd</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/project-engineer/5ae320e1-2233-4535-acc2-8069467f3e1a?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Job Express Services Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/project-engineer-id8074/6d7bd9f2-661e-4b9c-96dc-b5bc65a0c119?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Trueworld Studios</t>
-  </si>
-  <si>
     <t>Vflowtech</t>
   </si>
   <si>
@@ -82,67 +145,19 @@
     <t>https://glints.com/sg/opportunities/jobs/generative-ai-engineer-full-remote/bc3b4647-208f-4057-93ec-0a24785f7aac?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Mgg Software Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/4f83d138-dae5-4a84-9ba1-9350933b8203?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Environmental Solutions (Asia) Pte Ltd</t>
-  </si>
-  <si>
-    <t>Less than a year</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/engineering-assistant/b92bbf58-4a87-4d6d-aad8-d6470f4117ab?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Rsm Singapore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/intern-software-developer/116b82dd-3270-4c96-b534-696507ddef18?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>NETS Solutions Pte. Ltd.</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/software-developer-intern/85f9b0e7-4f7f-45c6-97d7-3a88211f31f3?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Rakuten Asia</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/software-engineer-fresh-graduates-2024/67eaf32c-6f99-454d-a734-0bb945b5f174?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Vibefam</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/fullstack-software-engineer-intern-summer-2024/72a4cc76-8994-408e-8736-642f4633d4fc?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/software-developer-intern-digital-transformation-office/48f633d3-49ad-4881-bf3f-5534ec99e573?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Mgg Software Pte. Ltd.</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/39bcd98d-d095-452b-82d2-65cd5a5ebded?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>ANOTECH Singapore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/service-support-engineer-networking/93722f6a-0153-4103-86e6-78ac98f7578d?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Aevice Health</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/project-engineer/d479eb1a-da17-4468-8a63-c5902c733e96?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/executive-assistant/6de1613e-a1c9-4d70-82ef-437b0baf25ca?utm_referrer=explore</t>
+    <t>eVantage Technology Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/network-and-system-engineer/62d0f5d6-d8c3-4c08-aab0-9aae9c5fe757?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/vfx-artist/c1ad5d53-9a86-4653-9780-1f6de7bc4d24?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/the-gameplay-programmer/000b12d0-a401-4924-9ddc-e27237828ffb?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/sound-designer-for-game-dev/8c8b3644-e883-4b58-9a9f-d1a23e91a878?utm_referrer=explore</t>
   </si>
   <si>
     <t>El Pando Pte Ltd</t>
@@ -151,64 +166,28 @@
     <t>https://glints.com/sg/opportunities/jobs/frontend-web-developer/7bcd6a22-5936-4a4e-9249-aa512de99f57?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Assembly Works HR Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/civil-architecture-engineering-intern/5e4e3ee7-4972-441f-8827-72648f335937?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>ConcreteAI</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/iot-intern-q3-q4-sem-1/bd922dbf-58f8-4598-a50b-99ddd80dfb6c?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>PPP Coffee</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/finance-admin/c5c9f34f-1c48-41b3-8abc-f2dac2560a47?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Lifvation Group</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/cake-sales-and-admin-executive/3810357d-cf8f-472d-b6d2-4165554deb8e?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Marymount Labs</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/venture-development-intern-part-time/1892c84b-1f77-4511-ae50-5395661f02a9?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>SATS Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/sats-aerolaundry-intern-6-months/caa0a502-14be-4b87-990c-f19573e70ff1?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/operational-excellence-intern/a8b2710b-5c6d-4e97-b1cd-13d0b32e5806?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Mediashock Productions Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/assistant-producer-intern/6dde4711-3c6f-4a32-8f39-b0829a49567b?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/videographer-intern/33016724-4b35-45eb-a3b1-fee4af6c0982?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/video-editor-cum-motion-graphics-intern/d86b0f46-6b50-4502-83e4-dcfbd8ca3114?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/videographer-intern-for-mediashock/98a63975-9ad4-4666-86fa-8ca9cbb11bc2?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>&amp;Whyte</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/advertising-account-executive-intern/538d8e19-3290-482f-936b-e6fbb804a249?utm_referrer=explore</t>
+    <t>https://glints.com/sg/opportunities/jobs/paid-ad-marketing-specialist-full-remote/8cfbde73-14d9-499e-8687-e1fbd7a35805?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/marketing-specialist-full-remote/1eac6f41-3b6f-48c0-b75a-d3c4ac00f153?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/the-3d-animator/725830a5-09d3-46bb-bb8e-0c57d604c0a4?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/that-3d-artist/5d524bf1-51ad-4cb1-b218-84bfd555d09f?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/seo-ga-marketing-specialist-full-remote/a6d6f6bc-1d87-4426-b8e8-c60b478f64eb?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/aha-ai-summer-internship-program-full-remote/43dee7b6-4b95-4771-8fd6-a48e6ffbe0fe?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/test-automation-intern-digital-transformation-office/b03129d5-1156-4ec3-b15c-440650a57bd4?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/a-concept-artist/35b6ce5c-601a-4fca-9976-91e8fd86efa3?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
@@ -577,422 +556,422 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tc72i\OneDrive\Documents\GitHub\InAuto\InAuto_Project_2200589F_2202465G\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC754CC-3C25-4DBC-93F5-C7FB46F8CA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD7DC38-7F2C-4E14-94CF-EC4FF6F74611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>Company</t>
   </si>
@@ -145,49 +145,70 @@
     <t>https://glints.com/sg/opportunities/jobs/generative-ai-engineer-full-remote/bc3b4647-208f-4057-93ec-0a24785f7aac?utm_referrer=explore</t>
   </si>
   <si>
-    <t>eVantage Technology Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/network-and-system-engineer/62d0f5d6-d8c3-4c08-aab0-9aae9c5fe757?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/vfx-artist/c1ad5d53-9a86-4653-9780-1f6de7bc4d24?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/the-gameplay-programmer/000b12d0-a401-4924-9ddc-e27237828ffb?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/sound-designer-for-game-dev/8c8b3644-e883-4b58-9a9f-d1a23e91a878?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>El Pando Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/frontend-web-developer/7bcd6a22-5936-4a4e-9249-aa512de99f57?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/paid-ad-marketing-specialist-full-remote/8cfbde73-14d9-499e-8687-e1fbd7a35805?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/marketing-specialist-full-remote/1eac6f41-3b6f-48c0-b75a-d3c4ac00f153?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/the-3d-animator/725830a5-09d3-46bb-bb8e-0c57d604c0a4?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/that-3d-artist/5d524bf1-51ad-4cb1-b218-84bfd555d09f?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/seo-ga-marketing-specialist-full-remote/a6d6f6bc-1d87-4426-b8e8-c60b478f64eb?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/aha-ai-summer-internship-program-full-remote/43dee7b6-4b95-4771-8fd6-a48e6ffbe0fe?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/test-automation-intern-digital-transformation-office/b03129d5-1156-4ec3-b15c-440650a57bd4?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/a-concept-artist/35b6ce5c-601a-4fca-9976-91e8fd86efa3?utm_referrer=explore</t>
+    <t>Assembly Works HR Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/civil-architecture-engineering-intern/5e4e3ee7-4972-441f-8827-72648f335937?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>ConcreteAI</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/iot-intern-q3-q4-sem-1/bd922dbf-58f8-4598-a50b-99ddd80dfb6c?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>PPP Coffee</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/finance-admin/c5c9f34f-1c48-41b3-8abc-f2dac2560a47?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Lifvation Group</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/cake-sales-and-admin-executive/3810357d-cf8f-472d-b6d2-4165554deb8e?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Marymount Labs</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/venture-development-intern-part-time/1892c84b-1f77-4511-ae50-5395661f02a9?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>SATS Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/sats-aerolaundry-intern-6-months/caa0a502-14be-4b87-990c-f19573e70ff1?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/operational-excellence-intern/a8b2710b-5c6d-4e97-b1cd-13d0b32e5806?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Mediashock Productions Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/assistant-producer-intern/6dde4711-3c6f-4a32-8f39-b0829a49567b?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>&amp;Whyte</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/advertising-account-executive-intern/538d8e19-3290-482f-936b-e6fbb804a249?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/videographer-intern/33016724-4b35-45eb-a3b1-fee4af6c0982?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/video-editor-cum-motion-graphics-intern/d86b0f46-6b50-4502-83e4-dcfbd8ca3114?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/video-editor-cum-motion-graphics-intern-for-mediashock/aeed6cac-52e9-43e2-9b1a-ede26557cec7?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>SGCM Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/product-management-intern/b2c94ec9-53f3-4e4f-bd14-8d47430bd621?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
@@ -556,30 +577,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -593,138 +614,138 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -733,40 +754,40 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -775,40 +796,40 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -817,91 +838,91 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -915,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tc72i\OneDrive\Documents\GitHub\InAuto\InAuto_Project_2200589F_2202465G\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD7DC38-7F2C-4E14-94CF-EC4FF6F74611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{AFD7DC38-7F2C-4E14-94CF-EC4FF6F74611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5960D036-49A4-4F47-BBAA-E69D1D61F0B6}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
   <si>
     <t>Company</t>
   </si>
@@ -139,12 +139,6 @@
     <t>https://glints.com/sg/opportunities/jobs/embedded-engineer-battery-and-energy-management-system/6e3fcfce-ca80-402f-9df9-d700007bfc06?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Aha AI</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/generative-ai-engineer-full-remote/bc3b4647-208f-4057-93ec-0a24785f7aac?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>Assembly Works HR Pte Ltd</t>
   </si>
   <si>
@@ -190,25 +184,34 @@
     <t>https://glints.com/sg/opportunities/jobs/assistant-producer-intern/6dde4711-3c6f-4a32-8f39-b0829a49567b?utm_referrer=explore</t>
   </si>
   <si>
-    <t>&amp;Whyte</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/advertising-account-executive-intern/538d8e19-3290-482f-936b-e6fbb804a249?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>https://glints.com/sg/opportunities/jobs/videographer-intern/33016724-4b35-45eb-a3b1-fee4af6c0982?utm_referrer=explore</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/video-editor-cum-motion-graphics-intern/d86b0f46-6b50-4502-83e4-dcfbd8ca3114?utm_referrer=explore</t>
   </si>
   <si>
-    <t>https://glints.com/sg/opportunities/jobs/video-editor-cum-motion-graphics-intern-for-mediashock/aeed6cac-52e9-43e2-9b1a-ede26557cec7?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>SGCM Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/product-management-intern/b2c94ec9-53f3-4e4f-bd14-8d47430bd621?utm_referrer=explore</t>
+    <t>Kopi Date</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer-remote/44143ad6-7ca4-4e5f-af4b-208e436a3dd5?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>FOMO Pay Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/accounting-intern/18348e9d-9ab8-45b0-af00-15248e378b94?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Hermetic-Pumps Singapore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/sales-engineer/ba54ad2d-490a-455e-998a-6a556374c1c8?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>NOVOSYS PTE. LTD.</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/business-development-executive/a937dc3f-d0f8-4e39-861e-45ddf4fcc379?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
@@ -577,21 +580,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -600,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -608,10 +611,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -619,21 +622,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -642,12 +645,12 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -656,21 +659,21 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -689,35 +692,35 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -726,12 +729,12 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -740,26 +743,26 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -768,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,7 +846,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -852,12 +855,12 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -866,26 +869,26 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -894,12 +897,12 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -908,21 +911,21 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{AFD7DC38-7F2C-4E14-94CF-EC4FF6F74611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5960D036-49A4-4F47-BBAA-E69D1D61F0B6}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{AFD7DC38-7F2C-4E14-94CF-EC4FF6F74611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{310B1D41-2C66-4C83-A50A-5241A1B0260C}"/>
   <bookViews>
-    <workbookView xWindow="4872" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{AFD7DC38-7F2C-4E14-94CF-EC4FF6F74611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{310B1D41-2C66-4C83-A50A-5241A1B0260C}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{AFD7DC38-7F2C-4E14-94CF-EC4FF6F74611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DC54865-0F3F-4882-B49D-A48A68813A34}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
   <si>
     <t>Company</t>
   </si>
@@ -43,15 +43,9 @@
     <t>Trueworld Studios</t>
   </si>
   <si>
-    <t>Environmental Solutions (Asia) Pte Ltd</t>
-  </si>
-  <si>
     <t>Less than a year</t>
   </si>
   <si>
-    <t>https://glints.com/sg/opportunities/jobs/engineering-assistant/b92bbf58-4a87-4d6d-aad8-d6470f4117ab?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>Rsm Singapore</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>Aevice Health</t>
   </si>
   <si>
-    <t>https://glints.com/sg/opportunities/jobs/project-engineer/d479eb1a-da17-4468-8a63-c5902c733e96?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>https://glints.com/sg/opportunities/jobs/executive-assistant/6de1613e-a1c9-4d70-82ef-437b0baf25ca?utm_referrer=explore</t>
   </si>
   <si>
@@ -109,109 +100,97 @@
     <t>https://glints.com/sg/opportunities/jobs/software-engineer/24ea8fc5-6ea3-49cb-9926-1fa896dc7543?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Watchdata Technologies Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/testing-engineer-telecom/1fa36c3b-d2cb-41d6-b28d-d5a0e3251bae?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>Mgg Software Pte Ltd</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/4f83d138-dae5-4a84-9ba1-9350933b8203?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Job Express Services Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/project-engineer-id8074/6d7bd9f2-661e-4b9c-96dc-b5bc65a0c119?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Youyi Technology Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/project-engineer/5ae320e1-2233-4535-acc2-8069467f3e1a?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>Vflowtech</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/embedded-engineer-battery-and-energy-management-system/6e3fcfce-ca80-402f-9df9-d700007bfc06?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Assembly Works HR Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/civil-architecture-engineering-intern/5e4e3ee7-4972-441f-8827-72648f335937?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>ConcreteAI</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/iot-intern-q3-q4-sem-1/bd922dbf-58f8-4598-a50b-99ddd80dfb6c?utm_referrer=explore</t>
+    <t>Marymount Labs</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/venture-development-intern-part-time/1892c84b-1f77-4511-ae50-5395661f02a9?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>FOMO Pay Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/accounting-intern/18348e9d-9ab8-45b0-af00-15248e378b94?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Mavericks Consulting</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/junior-software-developer/7ceca221-3aad-4112-8b17-0af80cf408e5?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/front-end-developer-software-intern-jun-dec-2024/00b175c3-84a8-4b90-93dd-0235e59801c2?utm_referrer=explore</t>
   </si>
   <si>
     <t>PPP Coffee</t>
   </si>
   <si>
-    <t>https://glints.com/sg/opportunities/jobs/finance-admin/c5c9f34f-1c48-41b3-8abc-f2dac2560a47?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Lifvation Group</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/cake-sales-and-admin-executive/3810357d-cf8f-472d-b6d2-4165554deb8e?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Marymount Labs</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/venture-development-intern-part-time/1892c84b-1f77-4511-ae50-5395661f02a9?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>SATS Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/sats-aerolaundry-intern-6-months/caa0a502-14be-4b87-990c-f19573e70ff1?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/operational-excellence-intern/a8b2710b-5c6d-4e97-b1cd-13d0b32e5806?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Mediashock Productions Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/assistant-producer-intern/6dde4711-3c6f-4a32-8f39-b0829a49567b?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/videographer-intern/33016724-4b35-45eb-a3b1-fee4af6c0982?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/video-editor-cum-motion-graphics-intern/d86b0f46-6b50-4502-83e4-dcfbd8ca3114?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Kopi Date</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/software-engineer-remote/44143ad6-7ca4-4e5f-af4b-208e436a3dd5?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>FOMO Pay Pte. Ltd.</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/accounting-intern/18348e9d-9ab8-45b0-af00-15248e378b94?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Hermetic-Pumps Singapore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/sales-engineer/ba54ad2d-490a-455e-998a-6a556374c1c8?utm_referrer=explore</t>
+    <t>https://glints.com/sg/opportunities/jobs/finance-admin/26c63444-0f30-46b1-b34d-5792636498c4?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>El Pando Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/frontend-web-developer/7bcd6a22-5936-4a4e-9249-aa512de99f57?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Kpi Media</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/webflow-developer/d83ceec2-bc71-43b6-89d4-15684159a9c1?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/intern-data-science-developer/0d534aa4-16cd-4863-ab02-56aa161e3095?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/sound-designer-for-game-dev/8c8b3644-e883-4b58-9a9f-d1a23e91a878?utm_referrer=explore</t>
   </si>
   <si>
     <t>NOVOSYS PTE. LTD.</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/business-development-executive/a937dc3f-d0f8-4e39-861e-45ddf4fcc379?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Royal Organisation Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/113b5dee-2fa4-43c0-805b-13103a3a005f?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/1051fcba-739a-49a0-b77f-ee26825ecbe0?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/5634b04c-59a9-4d99-81c7-e9681f2c211d?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/6098088e-0caf-48bf-bbc3-be563b460a61?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/ced452ea-1359-42b1-bc37-02693bce881e?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Empire Marketing</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/events-sales-consultant/7483c504-51cd-4f0d-81e5-1c4ce61188fb?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/bc9adf04-dccb-4c82-8738-6a3236aa5f1d?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/6a7fd4da-59b9-4422-9cc5-3c5cb51e55cb?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
@@ -550,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -558,7 +537,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="140.109375" bestFit="1" customWidth="1"/>
@@ -580,30 +559,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,10 +590,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -622,310 +601,310 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,70 +915,56 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
     <sortCondition ref="A1"/>
     <sortCondition ref="B1"/>
     <sortCondition ref="C1"/>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tc72i\OneDrive\Documents\GitHub\InAuto\InAuto_Project_2200589F_2202465G\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{AFD7DC38-7F2C-4E14-94CF-EC4FF6F74611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DC54865-0F3F-4882-B49D-A48A68813A34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>Company</t>
   </si>
@@ -40,55 +40,88 @@
     <t>Full-Time</t>
   </si>
   <si>
+    <t>Less than a year</t>
+  </si>
+  <si>
+    <t>Rsm Singapore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/intern-software-developer/116b82dd-3270-4c96-b534-696507ddef18?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>NETS Solutions Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-developer-intern/85f9b0e7-4f7f-45c6-97d7-3a88211f31f3?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Rakuten Asia</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer-fresh-graduates-2024/67eaf32c-6f99-454d-a734-0bb945b5f174?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Vibefam</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/fullstack-software-engineer-intern-summer-2024/72a4cc76-8994-408e-8736-642f4633d4fc?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-developer-intern-digital-transformation-office/48f633d3-49ad-4881-bf3f-5534ec99e573?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>ANOTECH Singapore</t>
+  </si>
+  <si>
+    <t>Aevice Health</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/front-end-developer-software-intern-jun-dec-2024/00b175c3-84a8-4b90-93dd-0235e59801c2?utm_referrer=explore</t>
+  </si>
+  <si>
     <t>Trueworld Studios</t>
   </si>
   <si>
-    <t>Less than a year</t>
-  </si>
-  <si>
-    <t>Rsm Singapore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/intern-software-developer/116b82dd-3270-4c96-b534-696507ddef18?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>NETS Solutions Pte. Ltd.</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/software-developer-intern/85f9b0e7-4f7f-45c6-97d7-3a88211f31f3?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Rakuten Asia</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/software-engineer-fresh-graduates-2024/67eaf32c-6f99-454d-a734-0bb945b5f174?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Vibefam</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/fullstack-software-engineer-intern-summer-2024/72a4cc76-8994-408e-8736-642f4633d4fc?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/software-developer-intern-digital-transformation-office/48f633d3-49ad-4881-bf3f-5534ec99e573?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>Mgg Software Pte. Ltd.</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/39bcd98d-d095-452b-82d2-65cd5a5ebded?utm_referrer=explore</t>
   </si>
   <si>
-    <t>ANOTECH Singapore</t>
+    <t>https://glints.com/sg/opportunities/jobs/executive-assistant/6de1613e-a1c9-4d70-82ef-437b0baf25ca?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Marymount Labs</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/venture-development-intern-part-time/1892c84b-1f77-4511-ae50-5395661f02a9?utm_referrer=explore</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/service-support-engineer-networking/93722f6a-0153-4103-86e6-78ac98f7578d?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Aevice Health</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/executive-assistant/6de1613e-a1c9-4d70-82ef-437b0baf25ca?utm_referrer=explore</t>
+    <t>PPP Coffee</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/finance-admin/26c63444-0f30-46b1-b34d-5792636498c4?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>FOMO Pay Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/accounting-intern/18348e9d-9ab8-45b0-af00-15248e378b94?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Lifvation Group</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/cake-sales-and-admin-executive/3810357d-cf8f-472d-b6d2-4165554deb8e?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Environmental Solutions (Asia) Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/engineering-assistant/b92bbf58-4a87-4d6d-aad8-d6470f4117ab?utm_referrer=explore</t>
   </si>
   <si>
     <t>Monstyr Pte. Ltd.</t>
@@ -100,6 +133,33 @@
     <t>https://glints.com/sg/opportunities/jobs/software-engineer/24ea8fc5-6ea3-49cb-9926-1fa896dc7543?utm_referrer=explore</t>
   </si>
   <si>
+    <t>Mavericks Consulting</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/junior-software-developer/7ceca221-3aad-4112-8b17-0af80cf408e5?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Assembly Works HR Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/civil-architecture-engineering-intern/5e4e3ee7-4972-441f-8827-72648f335937?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Job Express Services Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/project-engineer-id8074/6d7bd9f2-661e-4b9c-96dc-b5bc65a0c119?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Youyi Technology Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/project-engineer/5ae320e1-2233-4535-acc2-8069467f3e1a?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/project-engineer/d479eb1a-da17-4468-8a63-c5902c733e96?utm_referrer=explore</t>
+  </si>
+  <si>
     <t>Mgg Software Pte Ltd</t>
   </si>
   <si>
@@ -112,85 +172,37 @@
     <t>https://glints.com/sg/opportunities/jobs/embedded-engineer-battery-and-energy-management-system/6e3fcfce-ca80-402f-9df9-d700007bfc06?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Marymount Labs</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/venture-development-intern-part-time/1892c84b-1f77-4511-ae50-5395661f02a9?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>FOMO Pay Pte. Ltd.</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/accounting-intern/18348e9d-9ab8-45b0-af00-15248e378b94?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Mavericks Consulting</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/junior-software-developer/7ceca221-3aad-4112-8b17-0af80cf408e5?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/front-end-developer-software-intern-jun-dec-2024/00b175c3-84a8-4b90-93dd-0235e59801c2?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>PPP Coffee</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/finance-admin/26c63444-0f30-46b1-b34d-5792636498c4?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>El Pando Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/frontend-web-developer/7bcd6a22-5936-4a4e-9249-aa512de99f57?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Kpi Media</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/webflow-developer/d83ceec2-bc71-43b6-89d4-15684159a9c1?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/intern-data-science-developer/0d534aa4-16cd-4863-ab02-56aa161e3095?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/sound-designer-for-game-dev/8c8b3644-e883-4b58-9a9f-d1a23e91a878?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>NOVOSYS PTE. LTD.</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/business-development-executive/a937dc3f-d0f8-4e39-861e-45ddf4fcc379?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Royal Organisation Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/113b5dee-2fa4-43c0-805b-13103a3a005f?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/1051fcba-739a-49a0-b77f-ee26825ecbe0?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/5634b04c-59a9-4d99-81c7-e9681f2c211d?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/6098088e-0caf-48bf-bbc3-be563b460a61?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/ced452ea-1359-42b1-bc37-02693bce881e?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Empire Marketing</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/events-sales-consultant/7483c504-51cd-4f0d-81e5-1c4ce61188fb?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/bc9adf04-dccb-4c82-8738-6a3236aa5f1d?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/events-and-marketing-entry-level/6a7fd4da-59b9-4422-9cc5-3c5cb51e55cb?utm_referrer=explore</t>
+    <t>SATS Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/sats-aerolaundry-intern-6-months/caa0a502-14be-4b87-990c-f19573e70ff1?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/operational-excellence-intern/a8b2710b-5c6d-4e97-b1cd-13d0b32e5806?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Hermetic-Pumps Singapore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/sales-engineer/ba54ad2d-490a-455e-998a-6a556374c1c8?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Aha AI</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/generative-ai-engineer-full-remote/bc3b4647-208f-4057-93ec-0a24785f7aac?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Mediashock Productions Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/videographer-intern/33016724-4b35-45eb-a3b1-fee4af6c0982?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/video-editor-cum-motion-graphics-intern/d86b0f46-6b50-4502-83e4-dcfbd8ca3114?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/assistant-producer-intern/6dde4711-3c6f-4a32-8f39-b0829a49567b?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
@@ -537,7 +549,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="140.109375" bestFit="1" customWidth="1"/>
@@ -559,142 +571,142 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -702,265 +714,265 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tc72i\OneDrive\Documents\GitHub\InAuto\InAuto_Project_2200589F_2202465G\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6083E32E-BF14-4531-9FCB-123323B3E5F6}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Company</t>
   </si>
@@ -70,60 +70,12 @@
     <t>https://glints.com/sg/opportunities/jobs/software-developer-intern-digital-transformation-office/48f633d3-49ad-4881-bf3f-5534ec99e573?utm_referrer=explore</t>
   </si>
   <si>
-    <t>ANOTECH Singapore</t>
-  </si>
-  <si>
     <t>Aevice Health</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/front-end-developer-software-intern-jun-dec-2024/00b175c3-84a8-4b90-93dd-0235e59801c2?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Trueworld Studios</t>
-  </si>
-  <si>
-    <t>Mgg Software Pte. Ltd.</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/39bcd98d-d095-452b-82d2-65cd5a5ebded?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/executive-assistant/6de1613e-a1c9-4d70-82ef-437b0baf25ca?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Marymount Labs</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/venture-development-intern-part-time/1892c84b-1f77-4511-ae50-5395661f02a9?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/service-support-engineer-networking/93722f6a-0153-4103-86e6-78ac98f7578d?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>PPP Coffee</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/finance-admin/26c63444-0f30-46b1-b34d-5792636498c4?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>FOMO Pay Pte. Ltd.</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/accounting-intern/18348e9d-9ab8-45b0-af00-15248e378b94?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Lifvation Group</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/cake-sales-and-admin-executive/3810357d-cf8f-472d-b6d2-4165554deb8e?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Environmental Solutions (Asia) Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/engineering-assistant/b92bbf58-4a87-4d6d-aad8-d6470f4117ab?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>Monstyr Pte. Ltd.</t>
   </si>
   <si>
@@ -139,70 +91,40 @@
     <t>https://glints.com/sg/opportunities/jobs/junior-software-developer/7ceca221-3aad-4112-8b17-0af80cf408e5?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Assembly Works HR Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/civil-architecture-engineering-intern/5e4e3ee7-4972-441f-8827-72648f335937?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Job Express Services Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/project-engineer-id8074/6d7bd9f2-661e-4b9c-96dc-b5bc65a0c119?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Youyi Technology Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/project-engineer/5ae320e1-2233-4535-acc2-8069467f3e1a?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/project-engineer/d479eb1a-da17-4468-8a63-c5902c733e96?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>Mgg Software Pte Ltd</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/4f83d138-dae5-4a84-9ba1-9350933b8203?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Vflowtech</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/embedded-engineer-battery-and-energy-management-system/6e3fcfce-ca80-402f-9df9-d700007bfc06?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>SATS Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/sats-aerolaundry-intern-6-months/caa0a502-14be-4b87-990c-f19573e70ff1?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/operational-excellence-intern/a8b2710b-5c6d-4e97-b1cd-13d0b32e5806?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Hermetic-Pumps Singapore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/sales-engineer/ba54ad2d-490a-455e-998a-6a556374c1c8?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Aha AI</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/generative-ai-engineer-full-remote/bc3b4647-208f-4057-93ec-0a24785f7aac?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Mediashock Productions Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/videographer-intern/33016724-4b35-45eb-a3b1-fee4af6c0982?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/video-editor-cum-motion-graphics-intern/d86b0f46-6b50-4502-83e4-dcfbd8ca3114?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/assistant-producer-intern/6dde4711-3c6f-4a32-8f39-b0829a49567b?utm_referrer=explore</t>
+    <t>System Technic Engineering Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/engineering-intern/d1f645f0-696d-4682-bc47-1a174108c33a?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Reality Detector</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer-intern/cf425b8f-0f1e-42de-a6b2-5ef5013deeb6?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Kopi Date</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer-remote/44143ad6-7ca4-4e5f-af4b-208e436a3dd5?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer-core-platform-section/229fbd29-8a9c-4a52-9738-98ebd0db5480?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/singapore-software-engineer-fresh-grad-also-welcome/5f2526b9-7d5f-4ae2-b1b9-0be2274bd696?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/administration-assistant/515c46cf-61dd-424e-8733-029faa22556d?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
@@ -541,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -549,10 +471,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="140.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="136.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="140.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -571,77 +494,77 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -650,12 +573,12 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -664,12 +587,12 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -678,40 +601,40 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -720,54 +643,54 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -776,207 +699,11 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
     <sortCondition ref="A1"/>
     <sortCondition ref="B1"/>
     <sortCondition ref="C1"/>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6083E32E-BF14-4531-9FCB-123323B3E5F6}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F22339E-F3F3-4ED9-9ACD-0581F7CF6FDD}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>Company</t>
   </si>
@@ -76,6 +76,39 @@
     <t>https://glints.com/sg/opportunities/jobs/front-end-developer-software-intern-jun-dec-2024/00b175c3-84a8-4b90-93dd-0235e59801c2?utm_referrer=explore</t>
   </si>
   <si>
+    <t>Reality Detector</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer-intern/cf425b8f-0f1e-42de-a6b2-5ef5013deeb6?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer-core-platform-section/229fbd29-8a9c-4a52-9738-98ebd0db5480?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Hermetic-Pumps Singapore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/sales-engineer/ba54ad2d-490a-455e-998a-6a556374c1c8?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/mechanical-sales-engineer/eeffceca-ed7c-4b79-bf13-796bf658c286?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/test-automation-intern-digital-transformation-office/b03129d5-1156-4ec3-b15c-440650a57bd4?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/product-management-intern/a4b7587c-1f41-4583-9438-ac2f02677547?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>El Pando Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/frontend-web-developer/7bcd6a22-5936-4a4e-9249-aa512de99f57?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/intern-data-science-developer/0d534aa4-16cd-4863-ab02-56aa161e3095?utm_referrer=explore</t>
+  </si>
+  <si>
     <t>Monstyr Pte. Ltd.</t>
   </si>
   <si>
@@ -85,46 +118,55 @@
     <t>https://glints.com/sg/opportunities/jobs/software-engineer/24ea8fc5-6ea3-49cb-9926-1fa896dc7543?utm_referrer=explore</t>
   </si>
   <si>
+    <t>Kopi Date</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineer-remote/44143ad6-7ca4-4e5f-af4b-208e436a3dd5?utm_referrer=explore</t>
+  </si>
+  <si>
     <t>Mavericks Consulting</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/junior-software-developer/7ceca221-3aad-4112-8b17-0af80cf408e5?utm_referrer=explore</t>
   </si>
   <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/singapore-software-engineer-fresh-grad-also-welcome/5f2526b9-7d5f-4ae2-b1b9-0be2274bd696?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Youyi Technology Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/project-engineer/5ae320e1-2233-4535-acc2-8069467f3e1a?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>eVantage Technology Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/network-and-system-engineer/40858445-9e5b-4324-9470-e75065af7ecf?utm_referrer=explore</t>
+  </si>
+  <si>
     <t>Mgg Software Pte Ltd</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/4f83d138-dae5-4a84-9ba1-9350933b8203?utm_referrer=explore</t>
   </si>
   <si>
-    <t>System Technic Engineering Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/engineering-intern/d1f645f0-696d-4682-bc47-1a174108c33a?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Reality Detector</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/software-engineer-intern/cf425b8f-0f1e-42de-a6b2-5ef5013deeb6?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Kopi Date</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/software-engineer-remote/44143ad6-7ca4-4e5f-af4b-208e436a3dd5?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/software-engineer-core-platform-section/229fbd29-8a9c-4a52-9738-98ebd0db5480?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/singapore-software-engineer-fresh-grad-also-welcome/5f2526b9-7d5f-4ae2-b1b9-0be2274bd696?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/administration-assistant/515c46cf-61dd-424e-8733-029faa22556d?utm_referrer=explore</t>
+    <t>Kpi Media</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/webflow-developer/d83ceec2-bc71-43b6-89d4-15684159a9c1?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Trueworld Studios</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/the-gameplay-programmer/000b12d0-a401-4924-9ddc-e27237828ffb?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/java-developer-malaysian/554feac4-2297-4fed-9ded-c58e2b7f244e?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
@@ -463,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -471,7 +513,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="136.44140625" bestFit="1" customWidth="1"/>
@@ -508,133 +550,133 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -643,67 +685,193 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
     <sortCondition ref="A1"/>
     <sortCondition ref="B1"/>
     <sortCondition ref="C1"/>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F22339E-F3F3-4ED9-9ACD-0581F7CF6FDD}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39D79F17-4955-4D02-AE5A-20CC7B0C1017}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39D79F17-4955-4D02-AE5A-20CC7B0C1017}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A9F7EA2-7E00-42CE-A232-2189C00D005D}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A9F7EA2-7E00-42CE-A232-2189C00D005D}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BBBA482-0C00-44C8-B613-AD8CEC8A599F}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Company</t>
   </si>
@@ -85,30 +85,6 @@
     <t>https://glints.com/sg/opportunities/jobs/software-engineer-core-platform-section/229fbd29-8a9c-4a52-9738-98ebd0db5480?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Hermetic-Pumps Singapore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/sales-engineer/ba54ad2d-490a-455e-998a-6a556374c1c8?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/mechanical-sales-engineer/eeffceca-ed7c-4b79-bf13-796bf658c286?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/test-automation-intern-digital-transformation-office/b03129d5-1156-4ec3-b15c-440650a57bd4?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/product-management-intern/a4b7587c-1f41-4583-9438-ac2f02677547?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>El Pando Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/frontend-web-developer/7bcd6a22-5936-4a4e-9249-aa512de99f57?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/intern-data-science-developer/0d534aa4-16cd-4863-ab02-56aa161e3095?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>Monstyr Pte. Ltd.</t>
   </si>
   <si>
@@ -136,37 +112,19 @@
     <t>https://glints.com/sg/opportunities/jobs/singapore-software-engineer-fresh-grad-also-welcome/5f2526b9-7d5f-4ae2-b1b9-0be2274bd696?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Youyi Technology Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/project-engineer/5ae320e1-2233-4535-acc2-8069467f3e1a?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>eVantage Technology Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/network-and-system-engineer/40858445-9e5b-4324-9470-e75065af7ecf?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>Mgg Software Pte Ltd</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/4f83d138-dae5-4a84-9ba1-9350933b8203?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Kpi Media</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/webflow-developer/d83ceec2-bc71-43b6-89d4-15684159a9c1?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>Trueworld Studios</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/the-gameplay-programmer/000b12d0-a401-4924-9ddc-e27237828ffb?utm_referrer=explore</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/java-developer-malaysian/554feac4-2297-4fed-9ded-c58e2b7f244e?utm_referrer=explore</t>
+    <t>System Technic Engineering Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/engineering-intern/d1f645f0-696d-4682-bc47-1a174108c33a?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/administration-assistant/515c46cf-61dd-424e-8733-029faa22556d?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
@@ -505,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -513,7 +471,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="136.44140625" bestFit="1" customWidth="1"/>
@@ -550,44 +508,44 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -598,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -606,77 +564,77 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -685,193 +643,67 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
     <sortCondition ref="A1"/>
     <sortCondition ref="B1"/>
     <sortCondition ref="C1"/>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BBBA482-0C00-44C8-B613-AD8CEC8A599F}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16E32093-ECF4-4E08-9C51-FCD5CBD6DAF0}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>Company</t>
   </si>
@@ -112,19 +112,121 @@
     <t>https://glints.com/sg/opportunities/jobs/singapore-software-engineer-fresh-grad-also-welcome/5f2526b9-7d5f-4ae2-b1b9-0be2274bd696?utm_referrer=explore</t>
   </si>
   <si>
-    <t>Mgg Software Pte Ltd</t>
-  </si>
-  <si>
-    <t>https://glints.com/sg/opportunities/jobs/intern-bids-and-proposal/4f83d138-dae5-4a84-9ba1-9350933b8203?utm_referrer=explore</t>
-  </si>
-  <si>
     <t>System Technic Engineering Pte Ltd</t>
   </si>
   <si>
     <t>https://glints.com/sg/opportunities/jobs/engineering-intern/d1f645f0-696d-4682-bc47-1a174108c33a?utm_referrer=explore</t>
   </si>
   <si>
-    <t>https://glints.com/sg/opportunities/jobs/administration-assistant/515c46cf-61dd-424e-8733-029faa22556d?utm_referrer=explore</t>
+    <t>Atomionics</t>
+  </si>
+  <si>
+    <t>Software Testing</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineering-intern-for-quantum-sensor-immediate/12e16672-150f-4319-8945-0e089ff0dfb2?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>5 – 10 years</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-developer/3d2bc63c-42e4-4abe-b581-7e77712ef51b?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-engineering-python-intern-jan-2024-or-later/4591a978-859f-489e-9136-dcbe755d797c?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>MATLAB</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-controls-engineering-intern-jan-2024-or-later/f0b28d2f-610d-4641-b533-cb75f329f05a?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Hypotenuse AI</t>
+  </si>
+  <si>
+    <t>3 – 5 years</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/senior-software-engineer/8ebfc23d-78f6-4adb-97d7-8917e36cb11f?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/senior-software-developer/bb603918-ab34-4892-89bc-017d3ed47bb7?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>The Swim Starter</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/senior-software-engineer/983103cd-eb96-44ea-b801-4a18038e285b?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>One North Consulting Pte Ltd</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/senior-manual-software-tester/23eb27e8-94cc-435a-ad27-8fb713f59881?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Aztech Technologies Pte Ltd</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/r-and-d-software-internship/8da1f5d8-f341-4eae-9be8-f899b3530174?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Transcelestial Technologies</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/senior-manufacturing-software-engineer/0b12c9e4-896a-4f4f-9b99-b9ded5ab0212?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Problem Solving Skills</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/r-and-d-mechanical-engineering-internship/a6dc8700-63b7-49bc-930f-9683b8a3c0d1?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Noak</t>
+  </si>
+  <si>
+    <t>iOS Development</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/software-qa-engineer-includes-equity/7c4c3307-ae1e-45b6-96b1-3b72dfb5f651?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/full-stack-software-engineer-intern-6-months/e6728566-e76f-4972-8705-f73e9ceff3d7?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/remote-software-engineer-for-quantum-sensor-immediate/9d90f867-1ffe-4c83-a3ab-24354745c197?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Aha AI</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/singapore-senior-engineering-lead-full-remote/54891082-34ec-4471-90b9-218c91d8709a?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Circuit Design</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/electronics-engineering-intern-jan-2024-or-later/8d80ea0a-8f51-4ef3-988c-e6d75c9551b1?utm_referrer=explore</t>
+  </si>
+  <si>
+    <t>Verilog</t>
+  </si>
+  <si>
+    <t>https://glints.com/sg/opportunities/jobs/firmware-engineering-intern-jan-2024-or-later/b8bd3a3c-b0b4-4d84-af24-ad2dac43e155?utm_referrer=explore</t>
   </si>
 </sst>
 </file>
@@ -463,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -473,8 +575,8 @@
   <cols>
     <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="136.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="139.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="140.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -508,175 +610,175 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -685,25 +787,235 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
     <sortCondition ref="A1"/>
     <sortCondition ref="B1"/>
     <sortCondition ref="C1"/>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16E32093-ECF4-4E08-9C51-FCD5CBD6DAF0}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{593D1049-2335-4925-A9B6-76B40073098E}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{593D1049-2335-4925-A9B6-76B40073098E}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{ED0C76FE-FE4C-42B2-AA37-CC2E5182DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1BEDA49-1F15-46AE-89E1-89634579E023}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
